--- a/FullStack_1Year_Detailed_Final.xlsx
+++ b/FullStack_1Year_Detailed_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernie\Curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8CC380-1633-4DE8-9492-22877B44A0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60AF501-1478-4843-BFF4-DFCDEE0E5181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5242,7 +5242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5414,26 +5414,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5941,10 +5927,10 @@
   <dimension ref="A1:J937"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5993,7 +5979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -6018,14 +6004,14 @@
       <c r="H2" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="4" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -6050,46 +6036,46 @@
       <c r="H3" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="4" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="82">
+    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="79">
         <v>1</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="79">
         <v>1</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="79">
         <v>3</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="80" t="s">
         <v>665</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -6114,14 +6100,14 @@
       <c r="H5" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="4" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -6146,42 +6132,42 @@
       <c r="H6" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="4" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="82">
+    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="79">
         <v>1</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="79">
         <v>2</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="79">
         <v>3</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="80" t="s">
         <v>668</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="J7" s="85" t="s">
+      <c r="J7" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -6250,28 +6236,28 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="82">
+      <c r="A10" s="79">
         <v>1</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="79">
         <v>3</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="79">
         <v>3</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="80" t="s">
         <v>671</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -6346,28 +6332,28 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="82">
+      <c r="A13" s="79">
         <v>1</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="79">
         <v>4</v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="79">
         <v>3</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="80" t="s">
         <v>674</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -6441,35 +6427,35 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="9">
+    <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>5</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>3</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -6537,35 +6523,35 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="9">
+    <row r="19" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>6</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>3</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -6633,35 +6619,35 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="9">
+    <row r="22" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="10">
         <v>2</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>7</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="10">
         <v>3</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -6729,35 +6715,35 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="9">
+    <row r="25" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="10">
         <v>2</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>8</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="10">
         <v>3</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -6825,35 +6811,35 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="9">
+    <row r="28" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="10">
         <v>2</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="10">
         <v>9</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="10">
         <v>3</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -6921,35 +6907,35 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="9">
+    <row r="31" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="10">
         <v>2</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <v>10</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="10">
         <v>3</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -7017,35 +7003,35 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="9">
+    <row r="34" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="10">
         <v>2</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <v>11</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="10">
         <v>3</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -7209,35 +7195,35 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="9">
+    <row r="40" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="10">
         <v>3</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <v>13</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="10">
         <v>3</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="6" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -7305,35 +7291,35 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="9">
+    <row r="43" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="10">
         <v>3</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="10">
         <v>14</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="10">
         <v>3</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="6" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -7401,35 +7387,35 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="9">
+    <row r="46" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="10">
         <v>3</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="10">
         <v>15</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="10">
         <v>3</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="5" t="s">
         <v>1213</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="6" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -7497,35 +7483,35 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="9">
+    <row r="49" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="10">
         <v>3</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="10">
         <v>16</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="10">
         <v>3</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="6" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -7593,35 +7579,35 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="9">
+    <row r="52" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="10">
         <v>3</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <v>17</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="10">
         <v>3</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="6" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -7689,35 +7675,35 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="9">
+    <row r="55" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="10">
         <v>3</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="10">
         <v>18</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="10">
         <v>3</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J55" s="6" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -7785,35 +7771,35 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="9">
+    <row r="58" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="10">
         <v>4</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="10">
         <v>19</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="10">
         <v>3</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="H58" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J58" s="6" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -7881,35 +7867,35 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" s="9">
+    <row r="61" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="10">
         <v>4</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="10">
         <v>20</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="10">
         <v>3</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="14" t="s">
         <v>722</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J61" s="6" t="s">
         <v>1512</v>
       </c>
     </row>

--- a/FullStack_1Year_Detailed_Final.xlsx
+++ b/FullStack_1Year_Detailed_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernie\Curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60AF501-1478-4843-BFF4-DFCDEE0E5181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B729335-F8B8-4889-9820-E16DF8096A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5927,10 +5927,10 @@
   <dimension ref="A1:J937"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6364,28 +6364,28 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>1</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>5</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>675</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -6396,28 +6396,28 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>1</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>5</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>2</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>676</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -6428,28 +6428,28 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10">
+      <c r="A16" s="79">
         <v>1</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="79">
         <v>5</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="79">
         <v>3</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="80" t="s">
         <v>677</v>
       </c>
       <c r="I16" s="5" t="s">

--- a/FullStack_1Year_Detailed_Final.xlsx
+++ b/FullStack_1Year_Detailed_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernie\Curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD31F5E-3557-4978-A289-FD83F250C120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A012A1F-2109-4A87-9969-0A9F069412FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6941" uniqueCount="1739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6943" uniqueCount="1740">
   <si>
     <t>항목</t>
   </si>
@@ -5439,6 +5439,10 @@
   </si>
   <si>
     <t>Day8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 로딩이 원할히 되도록 loading=lazy / fetchpriority=high 사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12007,11 +12011,11 @@
   </sheetPr>
   <dimension ref="A1:J937"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:H25"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -42023,10 +42027,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -42259,6 +42263,14 @@
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B37" s="48" t="s">
         <v>1738</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="48" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1739</v>
       </c>
     </row>
   </sheetData>

--- a/FullStack_1Year_Detailed_Final.xlsx
+++ b/FullStack_1Year_Detailed_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernie\Curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A012A1F-2109-4A87-9969-0A9F069412FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B07236-7A55-4BD3-8B8A-388D184DCEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6943" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6948" uniqueCount="1743">
   <si>
     <t>항목</t>
   </si>
@@ -5444,6 +5444,17 @@
   <si>
     <t>사진 로딩이 원할히 되도록 loading=lazy / fetchpriority=high 사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다크모드가 될때 Fade-Out 되듯이 부드럽게 됨. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개 색을 홈페이지에 반영(이건 노가다)</t>
   </si>
 </sst>
 </file>
@@ -12011,11 +12022,11 @@
   </sheetPr>
   <dimension ref="A1:J937"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12833,28 +12844,28 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="81">
+      <c r="A26" s="8">
         <v>2</v>
       </c>
-      <c r="B26" s="81">
+      <c r="B26" s="8">
         <v>9</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="8">
         <v>1</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="81" t="s">
+      <c r="G26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="82" t="s">
+      <c r="H26" s="12" t="s">
         <v>687</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -12865,28 +12876,28 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="81">
+      <c r="A27" s="8">
         <v>2</v>
       </c>
-      <c r="B27" s="81">
+      <c r="B27" s="8">
         <v>9</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="8">
         <v>2</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="82" t="s">
+      <c r="H27" s="12" t="s">
         <v>688</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -12897,28 +12908,28 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="83">
+      <c r="A28" s="79">
         <v>2</v>
       </c>
-      <c r="B28" s="83">
+      <c r="B28" s="79">
         <v>9</v>
       </c>
-      <c r="C28" s="83">
+      <c r="C28" s="79">
         <v>3</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="83" t="s">
+      <c r="E28" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="F28" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="84" t="s">
+      <c r="H28" s="80" t="s">
         <v>689</v>
       </c>
       <c r="I28" s="5" t="s">
@@ -12929,28 +12940,28 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="81">
+      <c r="A29" s="8">
         <v>2</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="8">
         <v>10</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="81" t="s">
+      <c r="F29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="81" t="s">
+      <c r="G29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="82" t="s">
+      <c r="H29" s="12" t="s">
         <v>690</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -12961,28 +12972,28 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="81">
+      <c r="A30" s="8">
         <v>2</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="8">
         <v>10</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="8">
         <v>2</v>
       </c>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="81" t="s">
+      <c r="G30" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="82" t="s">
+      <c r="H30" s="12" t="s">
         <v>691</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -12993,28 +13004,28 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="83">
+      <c r="A31" s="79">
         <v>2</v>
       </c>
-      <c r="B31" s="83">
+      <c r="B31" s="79">
         <v>10</v>
       </c>
-      <c r="C31" s="83">
+      <c r="C31" s="79">
         <v>3</v>
       </c>
-      <c r="D31" s="83" t="s">
+      <c r="D31" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="83" t="s">
+      <c r="E31" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="83" t="s">
+      <c r="F31" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="83" t="s">
+      <c r="G31" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="84" t="s">
+      <c r="H31" s="80" t="s">
         <v>692</v>
       </c>
       <c r="I31" s="5" t="s">
@@ -42027,10 +42038,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -42271,6 +42282,27 @@
       </c>
       <c r="C38" t="s">
         <v>1739</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="48" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="48" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="48" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1742</v>
       </c>
     </row>
   </sheetData>

--- a/FullStack_1Year_Detailed_Final.xlsx
+++ b/FullStack_1Year_Detailed_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernie\Curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B07236-7A55-4BD3-8B8A-388D184DCEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FAA574-BF48-4312-AAB7-90C7BAAA6466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6948" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6956" uniqueCount="1747">
   <si>
     <t>항목</t>
   </si>
@@ -5346,10 +5346,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PE/VC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FY16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5455,6 +5451,26 @@
   </si>
   <si>
     <t>4개 색을 홈페이지에 반영(이건 노가다)</t>
+  </si>
+  <si>
+    <t>Day10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box 열때, 1) Spinner 2)Skeleton 활용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모달 열/닫기시 slide로 열림. 화면고정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce Motion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴토글도 매우 깔끔하게 보임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5820,7 +5836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6042,6 +6058,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -12022,11 +12042,11 @@
   </sheetPr>
   <dimension ref="A1:J937"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:H37"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -42038,10 +42058,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -42273,7 +42293,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B37" s="48" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
@@ -42281,12 +42301,12 @@
         <v>1602</v>
       </c>
       <c r="C38" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="48" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
@@ -42294,7 +42314,7 @@
         <v>1602</v>
       </c>
       <c r="C41" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
@@ -42302,7 +42322,44 @@
         <v>1602</v>
       </c>
       <c r="C42" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="48" t="s">
         <v>1742</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="48" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="48" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" s="48" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="48" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1746</v>
       </c>
     </row>
   </sheetData>
@@ -42470,7 +42527,7 @@
   </sheetPr>
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A84" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A72" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V94" sqref="V94"/>
     </sheetView>
   </sheetViews>
@@ -42547,14 +42604,14 @@
     <row r="67" spans="2:23" x14ac:dyDescent="0.4">
       <c r="D67" s="17"/>
       <c r="E67" s="45" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="45" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="L67" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.4">
@@ -42591,15 +42648,15 @@
       </c>
       <c r="L69" s="17"/>
       <c r="M69" s="45" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="N69" s="45" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B70" s="88" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -42611,7 +42668,7 @@
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="L70" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="M70" s="16">
         <v>2500000000</v>
@@ -42654,7 +42711,7 @@
         <v>4</v>
       </c>
       <c r="M72" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.4">
@@ -42722,29 +42779,29 @@
         <v>4</v>
       </c>
       <c r="M75" s="101" t="s">
+        <v>1721</v>
+      </c>
+      <c r="N75" s="45" t="s">
         <v>1722</v>
       </c>
-      <c r="N75" s="45" t="s">
+      <c r="O75" s="45" t="s">
         <v>1723</v>
       </c>
-      <c r="O75" s="45" t="s">
+      <c r="P75" s="45" t="s">
         <v>1724</v>
       </c>
-      <c r="P75" s="45" t="s">
+      <c r="R75" s="18" t="s">
         <v>1725</v>
-      </c>
-      <c r="R75" s="18" t="s">
-        <v>1726</v>
       </c>
       <c r="S75" s="18"/>
       <c r="T75" s="18" t="s">
+        <v>1726</v>
+      </c>
+      <c r="U75" s="18" t="s">
         <v>1727</v>
       </c>
-      <c r="U75" s="18" t="s">
-        <v>1728</v>
-      </c>
       <c r="V75" s="18" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.4">
@@ -42995,16 +43052,16 @@
         <v>6</v>
       </c>
       <c r="M82" s="100" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="N82" s="45" t="s">
+        <v>1722</v>
+      </c>
+      <c r="O82" s="45" t="s">
         <v>1723</v>
       </c>
-      <c r="O82" s="45" t="s">
+      <c r="P82" s="45" t="s">
         <v>1724</v>
-      </c>
-      <c r="P82" s="45" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.4">
@@ -43194,7 +43251,7 @@
         <v>3</v>
       </c>
       <c r="M89" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="N89" s="16">
         <v>200</v>
@@ -43222,7 +43279,7 @@
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.4">
       <c r="M90" s="17" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="N90" s="43">
         <v>140</v>
@@ -43307,7 +43364,7 @@
         <v>1</v>
       </c>
       <c r="M92" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="O92" s="98">
         <f>O91/N91-1</f>
@@ -43368,7 +43425,7 @@
         <v>5</v>
       </c>
       <c r="M94" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="N94" s="16">
         <v>500</v>
@@ -43414,7 +43471,7 @@
         <v>12.5</v>
       </c>
       <c r="M95" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="N95" s="89">
         <f>N94/N91</f>
@@ -43755,8 +43812,8 @@
   </sheetPr>
   <dimension ref="B1:AH12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -43769,36 +43826,118 @@
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="45" t="s">
-        <v>1715</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
+      <c r="F1" s="45">
+        <v>1</v>
+      </c>
+      <c r="G1" s="45">
+        <f>F1+1</f>
+        <v>2</v>
+      </c>
+      <c r="H1" s="45">
+        <f t="shared" ref="H1:AH1" si="0">G1+1</f>
+        <v>3</v>
+      </c>
+      <c r="I1" s="45">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J1" s="45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K1" s="45">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L1" s="45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M1" s="45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N1" s="45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O1" s="45">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P1" s="45">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q1" s="45">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R1" s="45">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S1" s="45">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="T1" s="45">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="U1" s="45">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V1" s="45">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="W1" s="45">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="X1" s="45">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Y1" s="45">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Z1" s="45">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AA1" s="45">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AB1" s="45">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AC1" s="45">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AD1" s="45">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AE1" s="45">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AF1" s="45">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AG1" s="45">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AH1" s="105"/>
     </row>
     <row r="2" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -43812,121 +43951,122 @@
         <v>32</v>
       </c>
       <c r="E2" s="97">
-        <f t="shared" ref="E2:AF2" si="0">D2+1</f>
+        <f t="shared" ref="E2:AF2" si="1">D2+1</f>
         <v>33</v>
       </c>
       <c r="F2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="H2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="I2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="J2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="K2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="L2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="N2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="O2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="P2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="Q2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="R2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="S2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="T2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="U2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="V2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="W2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="X2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="Y2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="Z2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="AA2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="AB2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="AC2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="AD2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="AE2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="AF2" s="97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="AG2" s="97">
-        <f t="shared" ref="AG2" si="1">AF2+1</f>
+        <f t="shared" ref="AG2" si="2">AF2+1</f>
         <v>61</v>
       </c>
+      <c r="AH2" s="106"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -43940,119 +44080,119 @@
         <v>2</v>
       </c>
       <c r="E3" s="45">
-        <f t="shared" ref="E3:Q3" si="2">D3+1</f>
+        <f t="shared" ref="E3:Q3" si="3">D3+1</f>
         <v>3</v>
       </c>
       <c r="F3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="J3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="L3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="N3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="O3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="P3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Q3" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R3" s="45">
-        <f t="shared" ref="R3:V3" si="3">Q3+1</f>
+        <f t="shared" ref="R3:V3" si="4">Q3+1</f>
         <v>16</v>
       </c>
       <c r="S3" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="T3" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="U3" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="V3" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="W3" s="45">
-        <f t="shared" ref="W3:AF3" si="4">V3+1</f>
+        <f t="shared" ref="W3:AF3" si="5">V3+1</f>
         <v>21</v>
       </c>
       <c r="X3" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="Y3" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="Z3" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="AA3" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AB3" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="AC3" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="AD3" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="AE3" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="AF3" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AG3" s="45">
-        <f t="shared" ref="AG3" si="5">AF3+1</f>
+        <f t="shared" ref="AG3" si="6">AF3+1</f>
         <v>31</v>
       </c>
       <c r="AH3" s="18"/>
@@ -44069,39 +44209,39 @@
         <v>200000000</v>
       </c>
       <c r="E4" s="104">
-        <f t="shared" ref="E4:M4" si="6">D4*2</f>
+        <f t="shared" ref="E4:M4" si="7">D4*2</f>
         <v>400000000</v>
       </c>
       <c r="F4" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800000000</v>
       </c>
       <c r="G4" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1600000000</v>
       </c>
       <c r="H4" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3200000000</v>
       </c>
       <c r="I4" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6400000000</v>
       </c>
       <c r="J4" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12800000000</v>
       </c>
       <c r="K4" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25600000000</v>
       </c>
       <c r="L4" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51200000000</v>
       </c>
       <c r="M4" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>102400000000</v>
       </c>
       <c r="N4" s="104">
@@ -44109,35 +44249,35 @@
         <v>112640000000.00002</v>
       </c>
       <c r="O4" s="104">
-        <f t="shared" ref="O4:V4" si="7">N4*1.1</f>
+        <f t="shared" ref="O4:V4" si="8">N4*1.1</f>
         <v>123904000000.00003</v>
       </c>
       <c r="P4" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>136294400000.00005</v>
       </c>
       <c r="Q4" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>149923840000.00006</v>
       </c>
       <c r="R4" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>164916224000.00009</v>
       </c>
       <c r="S4" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>181407846400.00012</v>
       </c>
       <c r="T4" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>199548631040.00015</v>
       </c>
       <c r="U4" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>219503494144.00018</v>
       </c>
       <c r="V4" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>241453843558.40021</v>
       </c>
       <c r="W4" s="104">
@@ -44145,173 +44285,173 @@
         <v>241453843558.40021</v>
       </c>
       <c r="X4" s="104">
-        <f t="shared" ref="X4:AF4" si="8">W4</f>
+        <f t="shared" ref="X4:AF4" si="9">W4</f>
         <v>241453843558.40021</v>
       </c>
       <c r="Y4" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>241453843558.40021</v>
       </c>
       <c r="Z4" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>241453843558.40021</v>
       </c>
       <c r="AA4" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>241453843558.40021</v>
       </c>
       <c r="AB4" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>241453843558.40021</v>
       </c>
       <c r="AC4" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>241453843558.40021</v>
       </c>
       <c r="AD4" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>241453843558.40021</v>
       </c>
       <c r="AE4" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>241453843558.40021</v>
       </c>
       <c r="AF4" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>241453843558.40021</v>
       </c>
       <c r="AG4" s="104">
-        <f t="shared" ref="AG4" si="9">AF4</f>
+        <f t="shared" ref="AG4" si="10">AF4</f>
         <v>241453843558.40021</v>
       </c>
       <c r="AH4" s="104"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B5" s="102" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C5" s="16">
         <f>C4/365</f>
         <v>273972.60273972602</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" ref="D5:AG5" si="10">D4/365</f>
+        <f t="shared" ref="D5:AG5" si="11">D4/365</f>
         <v>547945.20547945204</v>
       </c>
       <c r="E5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1095890.4109589041</v>
       </c>
       <c r="F5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2191780.8219178081</v>
       </c>
       <c r="G5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4383561.6438356163</v>
       </c>
       <c r="H5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8767123.2876712326</v>
       </c>
       <c r="I5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17534246.575342465</v>
       </c>
       <c r="J5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35068493.15068493</v>
       </c>
       <c r="K5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>70136986.301369861</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>140273972.60273972</v>
       </c>
       <c r="M5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>280547945.20547944</v>
       </c>
       <c r="N5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>308602739.72602743</v>
       </c>
       <c r="O5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>339463013.69863021</v>
       </c>
       <c r="P5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>373409315.06849325</v>
       </c>
       <c r="Q5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>410750246.57534266</v>
       </c>
       <c r="R5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>451825271.23287696</v>
       </c>
       <c r="S5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>497007798.35616469</v>
       </c>
       <c r="T5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>546708578.19178128</v>
       </c>
       <c r="U5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>601379436.01095939</v>
       </c>
       <c r="V5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="W5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="X5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="Y5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="Z5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="AA5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="AB5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="AC5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="AD5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="AE5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="AF5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="AG5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>661517379.61205542</v>
       </c>
       <c r="AH5" s="16"/>
@@ -44325,123 +44465,123 @@
         <v>50000000</v>
       </c>
       <c r="D6" s="104">
-        <f t="shared" ref="D6:Q6" si="11">D4*0.5</f>
+        <f t="shared" ref="D6:Q6" si="12">D4*0.5</f>
         <v>100000000</v>
       </c>
       <c r="E6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>200000000</v>
       </c>
       <c r="F6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>400000000</v>
       </c>
       <c r="G6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>800000000</v>
       </c>
       <c r="H6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1600000000</v>
       </c>
       <c r="I6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3200000000</v>
       </c>
       <c r="J6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6400000000</v>
       </c>
       <c r="K6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12800000000</v>
       </c>
       <c r="L6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25600000000</v>
       </c>
       <c r="M6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51200000000</v>
       </c>
       <c r="N6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56320000000.000008</v>
       </c>
       <c r="O6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>61952000000.000015</v>
       </c>
       <c r="P6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>68147200000.000023</v>
       </c>
       <c r="Q6" s="104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>74961920000.000031</v>
       </c>
       <c r="R6" s="104">
-        <f t="shared" ref="R6" si="12">R4*0.5</f>
+        <f t="shared" ref="R6" si="13">R4*0.5</f>
         <v>82458112000.000046</v>
       </c>
       <c r="S6" s="104">
-        <f t="shared" ref="S6" si="13">S4*0.5</f>
+        <f t="shared" ref="S6" si="14">S4*0.5</f>
         <v>90703923200.000061</v>
       </c>
       <c r="T6" s="104">
-        <f t="shared" ref="T6" si="14">T4*0.5</f>
+        <f t="shared" ref="T6" si="15">T4*0.5</f>
         <v>99774315520.000076</v>
       </c>
       <c r="U6" s="104">
-        <f t="shared" ref="U6" si="15">U4*0.5</f>
+        <f t="shared" ref="U6" si="16">U4*0.5</f>
         <v>109751747072.00009</v>
       </c>
       <c r="V6" s="104">
-        <f t="shared" ref="V6:W6" si="16">V4*0.5</f>
+        <f t="shared" ref="V6:W6" si="17">V4*0.5</f>
         <v>120726921779.2001</v>
       </c>
       <c r="W6" s="104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>120726921779.2001</v>
       </c>
       <c r="X6" s="104">
-        <f t="shared" ref="X6" si="17">X4*0.5</f>
+        <f t="shared" ref="X6" si="18">X4*0.5</f>
         <v>120726921779.2001</v>
       </c>
       <c r="Y6" s="104">
-        <f t="shared" ref="Y6" si="18">Y4*0.5</f>
+        <f t="shared" ref="Y6" si="19">Y4*0.5</f>
         <v>120726921779.2001</v>
       </c>
       <c r="Z6" s="104">
-        <f t="shared" ref="Z6" si="19">Z4*0.5</f>
+        <f t="shared" ref="Z6" si="20">Z4*0.5</f>
         <v>120726921779.2001</v>
       </c>
       <c r="AA6" s="104">
-        <f t="shared" ref="AA6" si="20">AA4*0.5</f>
+        <f t="shared" ref="AA6" si="21">AA4*0.5</f>
         <v>120726921779.2001</v>
       </c>
       <c r="AB6" s="104">
-        <f t="shared" ref="AB6" si="21">AB4*0.5</f>
+        <f t="shared" ref="AB6" si="22">AB4*0.5</f>
         <v>120726921779.2001</v>
       </c>
       <c r="AC6" s="104">
-        <f t="shared" ref="AC6" si="22">AC4*0.5</f>
+        <f t="shared" ref="AC6" si="23">AC4*0.5</f>
         <v>120726921779.2001</v>
       </c>
       <c r="AD6" s="104">
-        <f t="shared" ref="AD6" si="23">AD4*0.5</f>
+        <f t="shared" ref="AD6" si="24">AD4*0.5</f>
         <v>120726921779.2001</v>
       </c>
       <c r="AE6" s="104">
-        <f t="shared" ref="AE6" si="24">AE4*0.5</f>
+        <f t="shared" ref="AE6" si="25">AE4*0.5</f>
         <v>120726921779.2001</v>
       </c>
       <c r="AF6" s="104">
-        <f t="shared" ref="AF6:AG6" si="25">AF4*0.5</f>
+        <f t="shared" ref="AF6:AG6" si="26">AF4*0.5</f>
         <v>120726921779.2001</v>
       </c>
       <c r="AG6" s="104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>120726921779.2001</v>
       </c>
       <c r="AH6" s="104"/>
@@ -44490,123 +44630,123 @@
         <v>200</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" ref="D8:W8" si="26">D4/D9</f>
+        <f t="shared" ref="D8:W8" si="27">D4/D9</f>
         <v>400</v>
       </c>
       <c r="E8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>800</v>
       </c>
       <c r="F8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1600</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3200</v>
       </c>
       <c r="H8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6400</v>
       </c>
       <c r="I8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>12800</v>
       </c>
       <c r="J8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>25600</v>
       </c>
       <c r="K8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>51200</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>102400</v>
       </c>
       <c r="M8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>204800</v>
       </c>
       <c r="N8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>225280.00000000003</v>
       </c>
       <c r="O8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>247808.00000000006</v>
       </c>
       <c r="P8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>272588.8000000001</v>
       </c>
       <c r="Q8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>299847.68000000011</v>
       </c>
       <c r="R8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>329832.44800000021</v>
       </c>
       <c r="S8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>362815.69280000025</v>
       </c>
       <c r="T8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>399097.26208000031</v>
       </c>
       <c r="U8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>439006.98828800034</v>
       </c>
       <c r="V8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>482907.6871168004</v>
       </c>
       <c r="W8" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>482907.6871168004</v>
       </c>
       <c r="X8" s="16">
-        <f t="shared" ref="X8" si="27">X4/X9</f>
+        <f t="shared" ref="X8" si="28">X4/X9</f>
         <v>482907.6871168004</v>
       </c>
       <c r="Y8" s="16">
-        <f t="shared" ref="Y8" si="28">Y4/Y9</f>
+        <f t="shared" ref="Y8" si="29">Y4/Y9</f>
         <v>482907.6871168004</v>
       </c>
       <c r="Z8" s="16">
-        <f t="shared" ref="Z8" si="29">Z4/Z9</f>
+        <f t="shared" ref="Z8" si="30">Z4/Z9</f>
         <v>482907.6871168004</v>
       </c>
       <c r="AA8" s="16">
-        <f t="shared" ref="AA8" si="30">AA4/AA9</f>
+        <f t="shared" ref="AA8" si="31">AA4/AA9</f>
         <v>482907.6871168004</v>
       </c>
       <c r="AB8" s="16">
-        <f t="shared" ref="AB8" si="31">AB4/AB9</f>
+        <f t="shared" ref="AB8" si="32">AB4/AB9</f>
         <v>482907.6871168004</v>
       </c>
       <c r="AC8" s="16">
-        <f t="shared" ref="AC8" si="32">AC4/AC9</f>
+        <f t="shared" ref="AC8" si="33">AC4/AC9</f>
         <v>482907.6871168004</v>
       </c>
       <c r="AD8" s="16">
-        <f t="shared" ref="AD8" si="33">AD4/AD9</f>
+        <f t="shared" ref="AD8" si="34">AD4/AD9</f>
         <v>482907.6871168004</v>
       </c>
       <c r="AE8" s="16">
-        <f t="shared" ref="AE8" si="34">AE4/AE9</f>
+        <f t="shared" ref="AE8" si="35">AE4/AE9</f>
         <v>482907.6871168004</v>
       </c>
       <c r="AF8" s="16">
-        <f t="shared" ref="AF8:AG8" si="35">AF4/AF9</f>
+        <f t="shared" ref="AF8:AG8" si="36">AF4/AF9</f>
         <v>482907.6871168004</v>
       </c>
       <c r="AG8" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>482907.6871168004</v>
       </c>
       <c r="AH8" s="16"/>
@@ -44719,123 +44859,123 @@
         <v>16.666666666666668</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" ref="D10:V10" si="36">D8/12</f>
+        <f t="shared" ref="D10:V10" si="37">D8/12</f>
         <v>33.333333333333336</v>
       </c>
       <c r="E10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>66.666666666666671</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>133.33333333333334</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>266.66666666666669</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>533.33333333333337</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1066.6666666666667</v>
       </c>
       <c r="J10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2133.3333333333335</v>
       </c>
       <c r="K10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>4266.666666666667</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8533.3333333333339</v>
       </c>
       <c r="M10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>17066.666666666668</v>
       </c>
       <c r="N10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>18773.333333333336</v>
       </c>
       <c r="O10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>20650.666666666672</v>
       </c>
       <c r="P10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>22715.733333333341</v>
       </c>
       <c r="Q10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>24987.306666666675</v>
       </c>
       <c r="R10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>27486.037333333352</v>
       </c>
       <c r="S10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>30234.641066666689</v>
       </c>
       <c r="T10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>33258.105173333359</v>
       </c>
       <c r="U10" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>36583.915690666698</v>
       </c>
       <c r="V10" s="16">
-        <f t="shared" si="36"/>
-        <v>40242.307259733367</v>
-      </c>
-      <c r="W10" s="16">
-        <f t="shared" ref="W10:AF10" si="37">W8/12</f>
-        <v>40242.307259733367</v>
-      </c>
-      <c r="X10" s="16">
         <f t="shared" si="37"/>
         <v>40242.307259733367</v>
       </c>
+      <c r="W10" s="16">
+        <f t="shared" ref="W10:AF10" si="38">W8/12</f>
+        <v>40242.307259733367</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="38"/>
+        <v>40242.307259733367</v>
+      </c>
       <c r="Y10" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40242.307259733367</v>
       </c>
       <c r="Z10" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40242.307259733367</v>
       </c>
       <c r="AA10" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40242.307259733367</v>
       </c>
       <c r="AB10" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40242.307259733367</v>
       </c>
       <c r="AC10" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40242.307259733367</v>
       </c>
       <c r="AD10" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40242.307259733367</v>
       </c>
       <c r="AE10" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40242.307259733367</v>
       </c>
       <c r="AF10" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40242.307259733367</v>
       </c>
       <c r="AG10" s="16">
-        <f t="shared" ref="AG10" si="38">AG8/12</f>
+        <f t="shared" ref="AG10" si="39">AG8/12</f>
         <v>40242.307259733367</v>
       </c>
       <c r="AH10" s="16"/>
@@ -44888,119 +45028,119 @@
         <v>105000000</v>
       </c>
       <c r="E12" s="16">
-        <f t="shared" ref="E12:V12" si="39">D12+(0.7*E6)</f>
+        <f t="shared" ref="E12:V12" si="40">D12+(0.7*E6)</f>
         <v>245000000</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>525000000</v>
       </c>
       <c r="G12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1085000000</v>
       </c>
       <c r="H12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2205000000</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4445000000</v>
       </c>
       <c r="J12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>8925000000</v>
       </c>
       <c r="K12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>17885000000</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>35805000000</v>
       </c>
       <c r="M12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>71645000000</v>
       </c>
       <c r="N12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>111069000000</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>154435400000</v>
       </c>
       <c r="P12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>202138440000</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>254611784000</v>
       </c>
       <c r="R12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>312332462400</v>
       </c>
       <c r="S12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>375825208640.00006</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>445667229504.00012</v>
       </c>
       <c r="U12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>522493452454.40015</v>
       </c>
       <c r="V12" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>607002297699.84021</v>
       </c>
       <c r="W12" s="16">
-        <f t="shared" ref="W12:AF12" si="40">V12+(0.7*W6)</f>
+        <f t="shared" ref="W12:AF12" si="41">V12+(0.7*W6)</f>
         <v>691511142945.28027</v>
       </c>
       <c r="X12" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>776019988190.72034</v>
       </c>
       <c r="Y12" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>860528833436.1604</v>
       </c>
       <c r="Z12" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>945037678681.60046</v>
       </c>
       <c r="AA12" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1029546523927.0405</v>
       </c>
       <c r="AB12" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1114055369172.4805</v>
       </c>
       <c r="AC12" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1198564214417.9204</v>
       </c>
       <c r="AD12" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1283073059663.3604</v>
       </c>
       <c r="AE12" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1367581904908.8003</v>
       </c>
       <c r="AF12" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1452090750154.2402</v>
       </c>
       <c r="AG12" s="16">
-        <f t="shared" ref="AG12" si="41">AF12+(0.7*AG6)</f>
+        <f t="shared" ref="AG12" si="42">AF12+(0.7*AG6)</f>
         <v>1536599595399.6802</v>
       </c>
       <c r="AH12" s="16"/>
